--- a/InputFiles/ICDC/TC15_ICDC_UC01_FileFormat-pdf.xlsx
+++ b/InputFiles/ICDC/TC15_ICDC_UC01_FileFormat-pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EBF0A-2CFD-419D-A5F0-D8A1BE781778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22FEC5-4AD2-479C-802F-EC80D3B781B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12480" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,39 +64,6 @@
   </si>
   <si>
     <t>TC15_ICDC_UC01_FileFormat-pdf_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_record_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
- CASE
-    when exists (select 1 from df_case_file cf where cf.file_format = 'csv') 
-then (select count (cf.file_format) from df_case_file cf where cf.file_format = 'csv' )
-else 0
-    END AS 'Case Files',       
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'UC01' AND sf.file_format = 'pdf';</t>
   </si>
   <si>
     <t>SELECT 
@@ -323,6 +290,37 @@
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+ CASE
+    when exists (select 1 from df_case_file cf where cf.file_format = 'pdf') 
+then (select count (cf.file_format) from df_case_file cf where cf.file_format = 'pdf' )
+else 0
+    END AS 'Case Files',       
+    COUNT(DISTINCT sf.file_name) AS "Study Files" FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+JOIN 
+    df_case_file cf ON smp.sample_id = cf."sample.sample_id"
+LEFT JOIN 
+    df_study_file sf 
+    ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'OSA02' and sf.file_format = 'pdf';</t>
   </si>
 </sst>
 </file>
@@ -714,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -765,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -774,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -783,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>

--- a/InputFiles/ICDC/TC15_ICDC_UC01_FileFormat-pdf.xlsx
+++ b/InputFiles/ICDC/TC15_ICDC_UC01_FileFormat-pdf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22FEC5-4AD2-479C-802F-EC80D3B781B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05975310-F800-44CB-BC16-CEB3B3FFE07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12480" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="780" yWindow="540" windowWidth="21600" windowHeight="11328" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,83 +64,6 @@
   </si>
   <si>
     <t>TC15_ICDC_UC01_FileFormat-pdf_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT 
-    DISTINCT cf.file_name AS "File Name",
-    CASE
-        WHEN cf.file_name LIKE '%.bai' THEN 'bai'
-        WHEN cf.file_name LIKE '%.bam' THEN 'bam'
-        WHEN cf.file_name LIKE '%.csv' THEN 'csv'
-        WHEN cf.file_name LIKE '%.doc' THEN 'doc'
-        WHEN cf.file_name LIKE '%.docx' THEN 'docx'
-        WHEN cf.file_name LIKE '%.gz' THEN 'gz'
-        WHEN cf.file_name LIKE '%.pdf' THEN 'pdf'
-        WHEN cf.file_name LIKE '%.rtf' THEN 'rtf'
-        WHEN cf.file_name LIKE '%.tbi' THEN 'tbi'
-        WHEN cf.file_name LIKE '%.tif' THEN 'tif'
-        WHEN cf.file_name LIKE '%.xls' THEN 'xls'
-        WHEN cf.file_name LIKE '%.xlsx' THEN 'xlsx'
-        ELSE 'Unknown'
-    END AS "Format",
-    cf.file_type AS "File Type",
-    CASE     
-    WHEN cf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN cf.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(cf.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN cf.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / 1024.0, 2) = CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(cf.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(cf.file_size, 2) = CAST(ROUND(cf.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(cf.file_size, 2) || ' Bytes'
-        END
-END AS "Size",
-    'sample' AS "Association",
-    cf.file_description AS "Description",
-    smp.sample_id AS "Sample ID",
-    c.case_record_id AS "Case ID",
-    dmg.breed AS "Breed",
-    diag.disease_term AS "Diagnosis"
-FROM 
-    df_case_file cf
-JOIN 
-    df_sample smp ON cf."sample.sample_id" = smp.sample_id
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE
-    st.clinical_study_designation = 'UC01' AND cf.file_format = 'pdf'
-ORDER BY 
-    cf.file_name ASC
-LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -201,46 +124,6 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    c.case_record_id AS "Case ID",
-    COALESCE(dmg.breed, '') AS "Breed",
-    COALESCE(diag.disease_term, '') AS "Diagnosis",
-    COALESCE(smp.sample_site, '') AS "Sample Site",
-    COALESCE(smp.summarized_sample_type, '') AS "Sample Type",
-    COALESCE(smp.specific_sample_pathology, '') AS "Pathology/Morphology",
-    COALESCE(smp.tumor_grade, '') AS "Tumor Grade",
-    COALESCE(smp.sample_chronology, '') AS "Sample Chronology",
-    COALESCE(smp.percentage_tumor, '') AS "Percentage Tumor",
-    COALESCE(smp.necropsy_sample, '') AS "Necropsy Sample",
-    COALESCE(smp.sample_preservation, '') AS "Sample Preservation"
-FROM 
-    df_sample smp
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-   st.clinical_study_designation = 'UC01' AND sf.file_format = 'pdf'
-ORDER BY 
-    smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
     <t>SELECT
     DISTINCT c.case_record_id AS "Case ID",
     st.clinical_study_designation AS "Study Code",
@@ -292,6 +175,117 @@
 LIMIT 100;</t>
   </si>
   <si>
+    <t>SELECT DISTINCT
+    smp.sample_id AS "Sample ID",
+    c.case_record_id AS "Case ID",
+    COALESCE(dmg.breed, '') AS "Breed",
+    COALESCE(diag.disease_term, '') AS "Diagnosis",
+    COALESCE(smp.sample_site, '') AS "Sample Site",
+    COALESCE(smp.summarized_sample_type, '') AS "Sample Type",
+    COALESCE(smp.specific_sample_pathology, '') AS "Pathology/Morphology",
+    COALESCE(smp.tumor_grade, '') AS "Tumor Grade",
+    COALESCE(smp.sample_chronology, '') AS "Sample Chronology",
+    COALESCE(smp.percentage_tumor, '') AS "Percentage Tumor",
+    COALESCE(smp.necropsy_sample, '') AS "Necropsy Sample",
+    COALESCE(smp.sample_preservation, '') AS "Sample Preservation"
+FROM 
+    df_sample smp
+JOIN 
+    df_case c ON smp."case.case_record_id" = c.case_record_id
+JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
+LEFT JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_program p ON st."program.program_acronym" = p.program_acronym
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'UC01' AND sf.file_format = 'pdf'
+ORDER BY 
+    smp.sample_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT 
+    DISTINCT cf.file_name AS "File Name",
+    CASE
+        WHEN cf.file_name LIKE '%.bai' THEN 'bai'
+        WHEN cf.file_name LIKE '%.bam' THEN 'bam'
+        WHEN cf.file_name LIKE '%.csv' THEN 'csv'
+        WHEN cf.file_name LIKE '%.doc' THEN 'doc'
+        WHEN cf.file_name LIKE '%.docx' THEN 'docx'
+        WHEN cf.file_name LIKE '%.gz' THEN 'gz'
+        WHEN cf.file_name LIKE '%.pdf' THEN 'pdf'
+        WHEN cf.file_name LIKE '%.rtf' THEN 'rtf'
+        WHEN cf.file_name LIKE '%.tbi' THEN 'tbi'
+        WHEN cf.file_name LIKE '%.tif' THEN 'tif'
+        WHEN cf.file_name LIKE '%.xls' THEN 'xls'
+        WHEN cf.file_name LIKE '%.xlsx' THEN 'xlsx'
+        WHEN cf.file_name LIKE '%.cel' THEN 'cel'
+        WHEN cf.file_name LIKE '%.tsv' THEN 'tsv'
+        ELSE 'Unknown'
+    END AS "Format",
+    cf.file_type AS "File Type",
+    CASE     
+    WHEN cf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN cf.file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(cf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(cf.file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN cf.file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(cf.file_size / 1024.0, 2) = CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(cf.file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(cf.file_size, 2) = CAST(ROUND(cf.file_size, 0) AS INT) 
+            THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(cf.file_size, 2) || ' Bytes'
+        END
+    END AS "Size",
+    'sample' AS "Association",
+    cf.file_description AS "Description",
+    smp.sample_id AS "Sample ID",
+    c.case_record_id AS "Case ID",
+    dmg.breed AS "Breed",
+    diag.disease_term AS "Diagnosis"
+FROM 
+    df_case_file cf
+JOIN 
+    df_sample smp ON cf."sample.sample_id" = smp.sample_id
+JOIN 
+    df_case c ON smp."case.case_record_id" = c.case_record_id
+JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+WHERE
+    st.clinical_study_designation = 'UC01' AND cf.file_format = 'pdf'
+ORDER BY 
+    cf.file_name ASC
+LIMIT 100;</t>
+  </si>
+  <si>
     <t>SELECT
     COUNT(DISTINCT p.program_acronym) AS "Programs",
     COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
@@ -320,7 +314,7 @@
     df_study_file sf 
     ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-    st.clinical_study_designation = 'OSA02' and sf.file_format = 'pdf';</t>
+    st.clinical_study_designation = 'UC01' and sf.file_format = 'pdf';</t>
   </si>
 </sst>
 </file>
@@ -712,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -772,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -781,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
     </row>
